--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H2">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>26.70118929926933</v>
+        <v>281.0181341815093</v>
       </c>
       <c r="R2">
-        <v>240.310703693424</v>
+        <v>2529.163207633584</v>
       </c>
       <c r="S2">
-        <v>0.006927895924163024</v>
+        <v>0.07105222273873459</v>
       </c>
       <c r="T2">
-        <v>0.006927895924163025</v>
+        <v>0.07105222273873457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H3">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>42.37174448254222</v>
+        <v>68.63455503769555</v>
       </c>
       <c r="R3">
-        <v>381.34570034288</v>
+        <v>617.71099533926</v>
       </c>
       <c r="S3">
-        <v>0.01099378131101876</v>
+        <v>0.01735346263797505</v>
       </c>
       <c r="T3">
-        <v>0.01099378131101876</v>
+        <v>0.01735346263797505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H4">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>0.9828417584844444</v>
+        <v>1.186891154293111</v>
       </c>
       <c r="R4">
-        <v>8.845575826359999</v>
+        <v>10.682020388638</v>
       </c>
       <c r="S4">
-        <v>0.000255008319531592</v>
+        <v>0.0003000918602889821</v>
       </c>
       <c r="T4">
-        <v>0.0002550083195315921</v>
+        <v>0.0003000918602889821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H5">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>652.2622784060009</v>
+        <v>542.7380321616664</v>
       </c>
       <c r="R5">
-        <v>5870.360505654007</v>
+        <v>4884.642289454998</v>
       </c>
       <c r="S5">
-        <v>0.1692361014113283</v>
+        <v>0.1372251070638223</v>
       </c>
       <c r="T5">
-        <v>0.1692361014113284</v>
+        <v>0.1372251070638223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H6">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,43 +809,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>3.196428926599999</v>
+        <v>1.893971858256333</v>
       </c>
       <c r="R6">
-        <v>28.76786033939999</v>
+        <v>17.045746724307</v>
       </c>
       <c r="S6">
-        <v>0.0008293460895794217</v>
+        <v>0.0004788691332168793</v>
       </c>
       <c r="T6">
-        <v>0.0008293460895794219</v>
+        <v>0.0004788691332168794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.936685333333333</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H7">
-        <v>26.810056</v>
+        <v>35.254778</v>
       </c>
       <c r="I7">
-        <v>0.1887330597209498</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J7">
-        <v>0.1887330597209498</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>1.892107786619555</v>
+        <v>228.1330103488107</v>
       </c>
       <c r="R7">
-        <v>17.028970079576</v>
+        <v>2053.197093139296</v>
       </c>
       <c r="S7">
-        <v>0.0004909266653286279</v>
+        <v>0.05768082373962434</v>
       </c>
       <c r="T7">
-        <v>0.0004909266653286279</v>
+        <v>0.05768082373962432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J8">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>35.11162009813467</v>
+        <v>55.71813968627112</v>
       </c>
       <c r="R8">
-        <v>316.004580883212</v>
+        <v>501.46325717644</v>
       </c>
       <c r="S8">
-        <v>0.009110067983948719</v>
+        <v>0.01408769467176028</v>
       </c>
       <c r="T8">
-        <v>0.009110067983948719</v>
+        <v>0.01408769467176027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J9">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>55.71813968627112</v>
+        <v>0.9635287515302222</v>
       </c>
       <c r="R9">
-        <v>501.46325717644</v>
+        <v>8.671758763772001</v>
       </c>
       <c r="S9">
-        <v>0.01445663968402436</v>
+        <v>0.0002436172301417439</v>
       </c>
       <c r="T9">
-        <v>0.01445663968402436</v>
+        <v>0.0002436172301417438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J10">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>1.292420575492222</v>
+        <v>440.5995416219569</v>
       </c>
       <c r="R10">
-        <v>11.63178517943</v>
+        <v>3965.395874597612</v>
       </c>
       <c r="S10">
-        <v>0.0003353317014048513</v>
+        <v>0.1114005573380094</v>
       </c>
       <c r="T10">
-        <v>0.0003353317014048513</v>
+        <v>0.1114005573380094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J11">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>857.7140541212506</v>
+        <v>1.537543129728667</v>
       </c>
       <c r="R11">
-        <v>7719.426487091254</v>
+        <v>13.837888167558</v>
       </c>
       <c r="S11">
-        <v>0.2225426602929091</v>
+        <v>0.0003887502037620481</v>
       </c>
       <c r="T11">
-        <v>0.2225426602929091</v>
+        <v>0.0003887502037620481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.75159266666667</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H12">
-        <v>35.254778</v>
+        <v>15.006976</v>
       </c>
       <c r="I12">
-        <v>0.2481808363892573</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J12">
-        <v>0.2481808363892574</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>4.20325090705</v>
+        <v>97.10986156578133</v>
       </c>
       <c r="R12">
-        <v>37.82925816345</v>
+        <v>873.988754092032</v>
       </c>
       <c r="S12">
-        <v>0.001090576322305728</v>
+        <v>0.02455311837506884</v>
       </c>
       <c r="T12">
-        <v>0.001090576322305729</v>
+        <v>0.02455311837506883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.75159266666667</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H13">
-        <v>35.254778</v>
+        <v>15.006976</v>
       </c>
       <c r="I13">
-        <v>0.2481808363892573</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J13">
-        <v>0.2481808363892574</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>2.488090288559778</v>
+        <v>23.71765849827555</v>
       </c>
       <c r="R13">
-        <v>22.392812597038</v>
+        <v>213.45892648448</v>
       </c>
       <c r="S13">
-        <v>0.0006455604046646182</v>
+        <v>0.005996738820322009</v>
       </c>
       <c r="T13">
-        <v>0.0006455604046646183</v>
+        <v>0.005996738820322008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H14">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I14">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J14">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>8.589956831213334</v>
+        <v>0.4101473238471111</v>
       </c>
       <c r="R14">
-        <v>77.30961148092</v>
+        <v>3.691325914624</v>
       </c>
       <c r="S14">
-        <v>0.002228751920099965</v>
+        <v>0.0001037010621914461</v>
       </c>
       <c r="T14">
-        <v>0.002228751920099965</v>
+        <v>0.0001037010621914461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H15">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I15">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J15">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>13.63128255782222</v>
+        <v>187.5509398111004</v>
       </c>
       <c r="R15">
-        <v>122.6815430204</v>
+        <v>1687.958458299904</v>
       </c>
       <c r="S15">
-        <v>0.003536775302965073</v>
+        <v>0.0474201111224734</v>
       </c>
       <c r="T15">
-        <v>0.003536775302965074</v>
+        <v>0.04742011112247339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H16">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I16">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J16">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.3161869751444444</v>
+        <v>0.6544892396373334</v>
       </c>
       <c r="R16">
-        <v>2.845682776299999</v>
+        <v>5.890403156736001</v>
       </c>
       <c r="S16">
-        <v>8.203793590709361E-05</v>
+        <v>0.0001654801223780835</v>
       </c>
       <c r="T16">
-        <v>8.203793590709362E-05</v>
+        <v>0.0001654801223780835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.874993333333333</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H17">
-        <v>8.624979999999999</v>
+        <v>23.812151</v>
       </c>
       <c r="I17">
-        <v>0.06071672753805502</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J17">
-        <v>0.06071672753805503</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>209.8372754613489</v>
+        <v>154.0879846275147</v>
       </c>
       <c r="R17">
-        <v>1888.53547915214</v>
+        <v>1386.791861647632</v>
       </c>
       <c r="S17">
-        <v>0.05444442152417282</v>
+        <v>0.0389593854396791</v>
       </c>
       <c r="T17">
-        <v>0.05444442152417282</v>
+        <v>0.0389593854396791</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.874993333333333</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H18">
-        <v>8.624979999999999</v>
+        <v>23.812151</v>
       </c>
       <c r="I18">
-        <v>0.06071672753805502</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J18">
-        <v>0.06071672753805503</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>1.0283132405</v>
+        <v>37.63372884233111</v>
       </c>
       <c r="R18">
-        <v>9.254819164499999</v>
+        <v>338.70355958098</v>
       </c>
       <c r="S18">
-        <v>0.0002668063593638417</v>
+        <v>0.009515258123759879</v>
       </c>
       <c r="T18">
-        <v>0.0002668063593638418</v>
+        <v>0.009515258123759879</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.874993333333333</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H19">
-        <v>8.624979999999999</v>
+        <v>23.812151</v>
       </c>
       <c r="I19">
-        <v>0.06071672753805502</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J19">
-        <v>0.06071672753805503</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2117236666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N19">
-        <v>0.635171</v>
+        <v>0.245974</v>
       </c>
       <c r="O19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q19">
-        <v>0.6087041301755555</v>
+        <v>0.6507966700082222</v>
       </c>
       <c r="R19">
-        <v>5.47833717158</v>
+        <v>5.857170030074</v>
       </c>
       <c r="S19">
-        <v>0.0001579344955462275</v>
+        <v>0.0001645464983593701</v>
       </c>
       <c r="T19">
-        <v>0.0001579344955462275</v>
+        <v>0.0001645464983593701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H20">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.987818</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N20">
-        <v>8.963454</v>
+        <v>112.478254</v>
       </c>
       <c r="O20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q20">
-        <v>49.09504157174467</v>
+        <v>297.5943520515949</v>
       </c>
       <c r="R20">
-        <v>441.8553741457021</v>
+        <v>2678.349168464354</v>
       </c>
       <c r="S20">
-        <v>0.01273820932054182</v>
+        <v>0.07524332993436626</v>
       </c>
       <c r="T20">
-        <v>0.01273820932054182</v>
+        <v>0.07524332993436626</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H21">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>4.741326666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N21">
-        <v>14.22398</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O21">
-        <v>0.05825042696427194</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P21">
-        <v>0.05825042696427195</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q21">
-        <v>77.90823597863778</v>
+        <v>1.038503466795667</v>
       </c>
       <c r="R21">
-        <v>701.1741238077401</v>
+        <v>9.346531201161001</v>
       </c>
       <c r="S21">
-        <v>0.02021408651298934</v>
+        <v>0.0002625737298150809</v>
       </c>
       <c r="T21">
-        <v>0.02021408651298935</v>
+        <v>0.0002625737298150809</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.43173766666667</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H22">
-        <v>49.295213</v>
+        <v>16.414934</v>
       </c>
       <c r="I22">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J22">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1099783333333333</v>
+        <v>19.412944</v>
       </c>
       <c r="N22">
-        <v>0.329935</v>
+        <v>58.238832</v>
       </c>
       <c r="O22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q22">
-        <v>1.807135122350556</v>
+        <v>106.2207315018987</v>
       </c>
       <c r="R22">
-        <v>16.264216101155</v>
+        <v>955.9865835170879</v>
       </c>
       <c r="S22">
-        <v>0.0004688796408363298</v>
+        <v>0.0268566976865254</v>
       </c>
       <c r="T22">
-        <v>0.0004688796408363299</v>
+        <v>0.02685669768652539</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.43173766666667</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H23">
-        <v>49.295213</v>
+        <v>16.414934</v>
       </c>
       <c r="I23">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J23">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.98704766666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N23">
-        <v>218.961143</v>
+        <v>14.22398</v>
       </c>
       <c r="O23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q23">
-        <v>1199.304020323162</v>
+        <v>25.94285476859111</v>
       </c>
       <c r="R23">
-        <v>10793.73618290846</v>
+        <v>233.48569291732</v>
       </c>
       <c r="S23">
-        <v>0.3111716613483027</v>
+        <v>0.00655935425970053</v>
       </c>
       <c r="T23">
-        <v>0.3111716613483028</v>
+        <v>0.00655935425970053</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.43173766666667</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H24">
-        <v>49.295213</v>
+        <v>16.414934</v>
       </c>
       <c r="I24">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J24">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,43 +1925,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.357675</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N24">
-        <v>1.073025</v>
+        <v>0.245974</v>
       </c>
       <c r="O24">
-        <v>0.004394280953245005</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P24">
-        <v>0.004394280953245006</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q24">
-        <v>5.877221769925</v>
+        <v>0.4486274417462222</v>
       </c>
       <c r="R24">
-        <v>52.894995929325</v>
+        <v>4.037646975716</v>
       </c>
       <c r="S24">
-        <v>0.001524905137704101</v>
+        <v>0.0001134303201126252</v>
       </c>
       <c r="T24">
-        <v>0.001524905137704102</v>
+        <v>0.0001134303201126252</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.43173766666667</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H25">
-        <v>49.295213</v>
+        <v>16.414934</v>
       </c>
       <c r="I25">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J25">
-        <v>0.3470204008184817</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2117236666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N25">
-        <v>0.635171</v>
+        <v>112.478254</v>
       </c>
       <c r="O25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q25">
-        <v>3.478987748491444</v>
+        <v>205.1470128716929</v>
       </c>
       <c r="R25">
-        <v>31.310889736423</v>
+        <v>1846.323115845236</v>
       </c>
       <c r="S25">
-        <v>0.0009026588581073619</v>
+        <v>0.05186907704444031</v>
       </c>
       <c r="T25">
-        <v>0.0009026588581073621</v>
+        <v>0.05186907704444031</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H26">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.987818</v>
+        <v>0.130837</v>
       </c>
       <c r="N26">
-        <v>8.963454</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q26">
-        <v>17.19544035663333</v>
+        <v>0.7158935732526667</v>
       </c>
       <c r="R26">
-        <v>154.7589632097</v>
+        <v>6.443042159274</v>
       </c>
       <c r="S26">
-        <v>0.004461532399388978</v>
+        <v>0.000181005506182469</v>
       </c>
       <c r="T26">
-        <v>0.004461532399388978</v>
+        <v>0.000181005506182469</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.755183333333332</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H27">
-        <v>17.26555</v>
+        <v>57.892762</v>
       </c>
       <c r="I27">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J27">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.741326666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N27">
-        <v>14.22398</v>
+        <v>58.238832</v>
       </c>
       <c r="O27">
-        <v>0.05825042696427194</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P27">
-        <v>0.05825042696427195</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q27">
-        <v>27.28720420988888</v>
+        <v>374.6229822371094</v>
       </c>
       <c r="R27">
-        <v>245.584837889</v>
+        <v>3371.606840133984</v>
       </c>
       <c r="S27">
-        <v>0.007079943470258321</v>
+        <v>0.09471913851569344</v>
       </c>
       <c r="T27">
-        <v>0.007079943470258322</v>
+        <v>0.09471913851569341</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.755183333333332</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H28">
-        <v>17.26555</v>
+        <v>57.892762</v>
       </c>
       <c r="I28">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J28">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1099783333333333</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N28">
-        <v>0.329935</v>
+        <v>14.22398</v>
       </c>
       <c r="O28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q28">
-        <v>0.6329454710277777</v>
+        <v>91.49616542586223</v>
       </c>
       <c r="R28">
-        <v>5.696509239249999</v>
+        <v>823.4654888327601</v>
       </c>
       <c r="S28">
-        <v>0.0001642241586995819</v>
+        <v>0.02313375947966219</v>
       </c>
       <c r="T28">
-        <v>0.0001642241586995819</v>
+        <v>0.02313375947966218</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.755183333333332</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H29">
-        <v>17.26555</v>
+        <v>57.892762</v>
       </c>
       <c r="I29">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J29">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>72.98704766666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N29">
-        <v>218.961143</v>
+        <v>0.245974</v>
       </c>
       <c r="O29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q29">
-        <v>420.0538402804055</v>
+        <v>1.582234915576445</v>
       </c>
       <c r="R29">
-        <v>3780.484562523649</v>
+        <v>14.240114240188</v>
       </c>
       <c r="S29">
-        <v>0.1089872535410728</v>
+        <v>0.0004000500109146966</v>
       </c>
       <c r="T29">
-        <v>0.1089872535410728</v>
+        <v>0.0004000500109146965</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.755183333333332</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H30">
-        <v>17.26555</v>
+        <v>57.892762</v>
       </c>
       <c r="I30">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J30">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.357675</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N30">
-        <v>1.073025</v>
+        <v>112.478254</v>
       </c>
       <c r="O30">
-        <v>0.004394280953245005</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P30">
-        <v>0.004394280953245006</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q30">
-        <v>2.058485198749999</v>
+        <v>723.5196432219499</v>
       </c>
       <c r="R30">
-        <v>18.52636678875</v>
+        <v>6511.676788997548</v>
       </c>
       <c r="S30">
-        <v>0.0005340949820074221</v>
+        <v>0.1829336707959622</v>
       </c>
       <c r="T30">
-        <v>0.0005340949820074224</v>
+        <v>0.1829336707959622</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.755183333333332</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H31">
-        <v>17.26555</v>
+        <v>57.892762</v>
       </c>
       <c r="I31">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J31">
-        <v>0.1215432030155045</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.2117236666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N31">
-        <v>0.635171</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q31">
-        <v>1.218508517672222</v>
+        <v>2.524838433931334</v>
       </c>
       <c r="R31">
-        <v>10.96657665905</v>
+        <v>22.723545905382</v>
       </c>
       <c r="S31">
-        <v>0.0003161544640773854</v>
+        <v>0.0006383765350571136</v>
       </c>
       <c r="T31">
-        <v>0.0003161544640773854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.600734666666667</v>
-      </c>
-      <c r="H32">
-        <v>4.802204</v>
-      </c>
-      <c r="I32">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="J32">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.987818</v>
-      </c>
-      <c r="N32">
-        <v>8.963454</v>
-      </c>
-      <c r="O32">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="P32">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="Q32">
-        <v>4.782703850290667</v>
-      </c>
-      <c r="R32">
-        <v>43.044334652616</v>
-      </c>
-      <c r="S32">
-        <v>0.00124092129903046</v>
-      </c>
-      <c r="T32">
-        <v>0.00124092129903046</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.600734666666667</v>
-      </c>
-      <c r="H33">
-        <v>4.802204</v>
-      </c>
-      <c r="I33">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="J33">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.741326666666667</v>
-      </c>
-      <c r="N33">
-        <v>14.22398</v>
-      </c>
-      <c r="O33">
-        <v>0.05825042696427194</v>
-      </c>
-      <c r="P33">
-        <v>0.05825042696427195</v>
-      </c>
-      <c r="Q33">
-        <v>7.589605961324445</v>
-      </c>
-      <c r="R33">
-        <v>68.30645365191999</v>
-      </c>
-      <c r="S33">
-        <v>0.001969200683016087</v>
-      </c>
-      <c r="T33">
-        <v>0.001969200683016087</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.600734666666667</v>
-      </c>
-      <c r="H34">
-        <v>4.802204</v>
-      </c>
-      <c r="I34">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="J34">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1099783333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.329935</v>
-      </c>
-      <c r="O34">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="P34">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="Q34">
-        <v>0.1760461307488889</v>
-      </c>
-      <c r="R34">
-        <v>1.58441517674</v>
-      </c>
-      <c r="S34">
-        <v>4.567696434829862E-05</v>
-      </c>
-      <c r="T34">
-        <v>4.567696434829862E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.600734666666667</v>
-      </c>
-      <c r="H35">
-        <v>4.802204</v>
-      </c>
-      <c r="I35">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="J35">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N35">
-        <v>218.961143</v>
-      </c>
-      <c r="O35">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P35">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q35">
-        <v>116.8328974176858</v>
-      </c>
-      <c r="R35">
-        <v>1051.496076759172</v>
-      </c>
-      <c r="S35">
-        <v>0.03031348696705022</v>
-      </c>
-      <c r="T35">
-        <v>0.03031348696705022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.600734666666667</v>
-      </c>
-      <c r="H36">
-        <v>4.802204</v>
-      </c>
-      <c r="I36">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="J36">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.357675</v>
-      </c>
-      <c r="N36">
-        <v>1.073025</v>
-      </c>
-      <c r="O36">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P36">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q36">
-        <v>0.5725427718999999</v>
-      </c>
-      <c r="R36">
-        <v>5.1528849471</v>
-      </c>
-      <c r="S36">
-        <v>0.0001485520622844897</v>
-      </c>
-      <c r="T36">
-        <v>0.0001485520622844897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.600734666666667</v>
-      </c>
-      <c r="H37">
-        <v>4.802204</v>
-      </c>
-      <c r="I37">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="J37">
-        <v>0.03380577251775169</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.635171</v>
-      </c>
-      <c r="O37">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P37">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q37">
-        <v>0.3389134129871111</v>
-      </c>
-      <c r="R37">
-        <v>3.050220716884</v>
-      </c>
-      <c r="S37">
-        <v>8.793454202213521E-05</v>
-      </c>
-      <c r="T37">
-        <v>8.793454202213521E-05</v>
+        <v>0.0006383765350571136</v>
       </c>
     </row>
   </sheetData>
